--- a/biology/Zoologie/Evanioidea/Evanioidea.xlsx
+++ b/biology/Zoologie/Evanioidea/Evanioidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Evanioidea sont une super-famille d'hyménoptères parasites des stades jeunes d'autres insectes ou d'autres arthropodes.
 </t>
@@ -511,16 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Taille relativement petite (2,2 à 6,5 mm),
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Taille relativement petite (2,2 à 6,5 mm),
 Thorax massif avec un petit abdomen aplati transversalement qui s'y rattache par le sommet,
-Antenne à 13 articles.
-Biologie
-Certains sont notamment parasitoïdes oophages solitaires des oothèques de blattes. Un seul œuf est déposé par oothèque ce qui suffit généralement pour la détruire. Brachygaster parasite Ectobius, Zeuxevania parasite des Loboptera, Evania appendigaster parasite Periplaneta et Blatta. Cette espèce se développe en 50-60 jours. Prosevania punctata préfère comme hôte Periplaneta americana. 
-Certaines espèces de Gasteruptiidae parasitent les abeilles. 
-Les Evaniidae sont abondants sous les tropiques.
-</t>
+Antenne à 13 articles.</t>
         </is>
       </c>
     </row>
@@ -545,26 +554,136 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certains sont notamment parasitoïdes oophages solitaires des oothèques de blattes. Un seul œuf est déposé par oothèque ce qui suffit généralement pour la détruire. Brachygaster parasite Ectobius, Zeuxevania parasite des Loboptera, Evania appendigaster parasite Periplaneta et Blatta. Cette espèce se développe en 50-60 jours. Prosevania punctata préfère comme hôte Periplaneta americana. 
+Certaines espèces de Gasteruptiidae parasitent les abeilles. 
+Les Evaniidae sont abondants sous les tropiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Evanioidea</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Evanioidea</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le super-famille des Evanioidea a été décrite par l'entomologiste français Pierre-André Latreille en 1802.
-Taxinomie
-Liste des familles
-Selon ITIS      (17 juillet 2013)[1] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Evanioidea</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Evanioidea</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Liste des familles
+Selon ITIS      (17 juillet 2013) :
 Aulacidae
 Evaniidae
 Gasteruptiidae
 Praeaulacidae
-Familles disparues [2]
+Familles disparues 
 †Andreneliidae
 †Anomopterellidae
 †Baissidae
-†Praeaulacidae
-Utilisation en lutte biologique
-E. appendigaster et Prosevania punctata ont été proposés comme agents de lutte biologique. Leur rôle en tant qu'agent biologique de contrôle des populations de blattes est certain mais les données pour établir un programme de contrôle biologiques sont absentes.
+†Praeaulacidae</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Evanioidea</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Evanioidea</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Utilisation en lutte biologique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">E. appendigaster et Prosevania punctata ont été proposés comme agents de lutte biologique. Leur rôle en tant qu'agent biologique de contrôle des populations de blattes est certain mais les données pour établir un programme de contrôle biologiques sont absentes.
 </t>
         </is>
       </c>
